--- a/REGULAR/CASUAL-REGULAR FINAL/CARAAN, ARIEL.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/CARAAN, ARIEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A47A445-BADB-4826-A16D-630921CA0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -654,7 +653,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1326,7 +1325,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1343,26 +1342,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K540" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K540"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1669,34 +1668,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" activePane="bottomLeft"/>
+      <pane ySplit="1800" topLeftCell="A459" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="C487" sqref="C487"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1737,7 +1736,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1758,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1767,7 +1766,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1780,7 +1779,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1797,7 +1796,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1841,7 +1840,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.19599999999991</v>
+        <v>194.44599999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1851,12 +1850,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>348.20799999999997</v>
+        <v>349.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>53</v>
       </c>
@@ -1875,7 +1874,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>33619</v>
       </c>
@@ -1895,7 +1894,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>33663</v>
       </c>
@@ -1915,7 +1914,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>33694</v>
       </c>
@@ -1935,7 +1934,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>33724</v>
       </c>
@@ -1955,7 +1954,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>33755</v>
       </c>
@@ -1975,7 +1974,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>33785</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>33816</v>
       </c>
@@ -2015,7 +2014,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>33847</v>
       </c>
@@ -2035,7 +2034,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>33877</v>
       </c>
@@ -2055,7 +2054,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>33908</v>
       </c>
@@ -2075,7 +2074,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>33938</v>
       </c>
@@ -2095,7 +2094,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>33969</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>54</v>
       </c>
@@ -2141,7 +2140,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>34000</v>
       </c>
@@ -2161,7 +2160,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>34028</v>
       </c>
@@ -2181,7 +2180,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34059</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>34089</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>34120</v>
       </c>
@@ -2247,7 +2246,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34150</v>
       </c>
@@ -2267,7 +2266,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34181</v>
       </c>
@@ -2287,7 +2286,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34212</v>
       </c>
@@ -2307,7 +2306,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>34242</v>
       </c>
@@ -2331,7 +2330,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>34273</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34303</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34334</v>
       </c>
@@ -2397,7 +2396,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>83</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>34365</v>
       </c>
@@ -2439,7 +2438,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>34393</v>
       </c>
@@ -2459,7 +2458,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>34424</v>
       </c>
@@ -2479,7 +2478,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>34454</v>
       </c>
@@ -2499,7 +2498,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>34485</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>34515</v>
       </c>
@@ -2545,7 +2544,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>34546</v>
       </c>
@@ -2569,7 +2568,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>34577</v>
       </c>
@@ -2589,7 +2588,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>34607</v>
       </c>
@@ -2609,7 +2608,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>34638</v>
       </c>
@@ -2629,7 +2628,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>34668</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>34663</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>34699</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>55</v>
       </c>
@@ -2697,7 +2696,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>34730</v>
       </c>
@@ -2717,7 +2716,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>34758</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>34789</v>
       </c>
@@ -2763,7 +2762,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>34819</v>
       </c>
@@ -2783,7 +2782,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>34850</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>34824</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -2831,7 +2830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>91</v>
@@ -2853,7 +2852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>34880</v>
       </c>
@@ -2873,7 +2872,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>34911</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>34942</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>34972</v>
       </c>
@@ -2943,7 +2942,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>35003</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>35033</v>
       </c>
@@ -2983,7 +2982,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>35064</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>56</v>
       </c>
@@ -3029,7 +3028,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>35095</v>
       </c>
@@ -3049,7 +3048,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35124</v>
       </c>
@@ -3069,7 +3068,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>35155</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>35137</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>35185</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>35156</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>35216</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>35209</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>35246</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>35244</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>35277</v>
       </c>
@@ -3193,7 +3192,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>35308</v>
       </c>
@@ -3213,7 +3212,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>35338</v>
       </c>
@@ -3237,7 +3236,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>35369</v>
       </c>
@@ -3257,7 +3256,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>35399</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>35430</v>
       </c>
@@ -3301,7 +3300,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>57</v>
       </c>
@@ -3323,7 +3322,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>35461</v>
       </c>
@@ -3343,7 +3342,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>99</v>
       </c>
@@ -3363,7 +3362,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>98</v>
       </c>
@@ -3383,7 +3382,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>35520</v>
       </c>
@@ -3401,7 +3400,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>35550</v>
       </c>
@@ -3419,7 +3418,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>35581</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>91</v>
@@ -3467,7 +3466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>35611</v>
       </c>
@@ -3487,7 +3486,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>35642</v>
       </c>
@@ -3507,7 +3506,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>35673</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>35703</v>
       </c>
@@ -3547,7 +3546,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>35734</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>35764</v>
       </c>
@@ -3587,7 +3586,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>35795</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>58</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>35826</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>35854</v>
       </c>
@@ -3669,7 +3668,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>35885</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>35915</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>35946</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>35976</v>
       </c>
@@ -3755,7 +3754,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>36007</v>
       </c>
@@ -3775,7 +3774,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>36038</v>
       </c>
@@ -3795,7 +3794,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>36068</v>
       </c>
@@ -3815,7 +3814,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>36099</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>84</v>
@@ -3861,7 +3860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>36129</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>36160</v>
       </c>
@@ -3905,7 +3904,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>59</v>
       </c>
@@ -3927,7 +3926,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>36191</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>36183</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>36219</v>
       </c>
@@ -3973,7 +3972,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>36250</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>36280</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>36311</v>
       </c>
@@ -4043,7 +4042,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>36341</v>
       </c>
@@ -4063,7 +4062,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>36372</v>
       </c>
@@ -4083,7 +4082,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>36403</v>
       </c>
@@ -4103,7 +4102,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>36433</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>36464</v>
       </c>
@@ -4149,7 +4148,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>36494</v>
       </c>
@@ -4169,7 +4168,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>36525</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>60</v>
       </c>
@@ -4215,7 +4214,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>36556</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>36553</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>36585</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>36616</v>
       </c>
@@ -4291,7 +4290,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>36646</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>36677</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>36707</v>
       </c>
@@ -4361,7 +4360,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>36738</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>36769</v>
       </c>
@@ -4407,7 +4406,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>36799</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>36771</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>36830</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>36860</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>36891</v>
       </c>
@@ -4509,7 +4508,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>61</v>
       </c>
@@ -4531,7 +4530,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>36922</v>
       </c>
@@ -4551,7 +4550,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>36950</v>
       </c>
@@ -4571,7 +4570,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>36981</v>
       </c>
@@ -4591,7 +4590,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>37011</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>37042</v>
       </c>
@@ -4631,7 +4630,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>37072</v>
       </c>
@@ -4657,7 +4656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>37103</v>
       </c>
@@ -4677,7 +4676,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>37134</v>
       </c>
@@ -4697,7 +4696,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>37164</v>
       </c>
@@ -4717,7 +4716,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>37195</v>
       </c>
@@ -4737,7 +4736,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>37225</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>37256</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>121</v>
@@ -4809,7 +4808,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>62</v>
       </c>
@@ -4831,7 +4830,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>37287</v>
       </c>
@@ -4851,7 +4850,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>37315</v>
       </c>
@@ -4871,7 +4870,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>37346</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>37376</v>
       </c>
@@ -4911,7 +4910,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>37407</v>
       </c>
@@ -4931,7 +4930,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>37437</v>
       </c>
@@ -4951,7 +4950,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>37468</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>37441</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>109</v>
@@ -4997,7 +4996,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>37499</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>37529</v>
       </c>
@@ -5037,7 +5036,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>37560</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>37590</v>
       </c>
@@ -5077,7 +5076,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>37621</v>
       </c>
@@ -5101,7 +5100,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
         <v>63</v>
       </c>
@@ -5123,7 +5122,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>37652</v>
       </c>
@@ -5143,7 +5142,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>37680</v>
       </c>
@@ -5163,7 +5162,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>37711</v>
       </c>
@@ -5183,7 +5182,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>37741</v>
       </c>
@@ -5203,7 +5202,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>37772</v>
       </c>
@@ -5223,7 +5222,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>37802</v>
       </c>
@@ -5243,7 +5242,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>37833</v>
       </c>
@@ -5263,7 +5262,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>37864</v>
       </c>
@@ -5283,7 +5282,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>37894</v>
       </c>
@@ -5303,7 +5302,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>37925</v>
       </c>
@@ -5323,7 +5322,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>37955</v>
       </c>
@@ -5343,7 +5342,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>37986</v>
       </c>
@@ -5367,7 +5366,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>64</v>
       </c>
@@ -5389,7 +5388,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>38017</v>
       </c>
@@ -5409,7 +5408,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>38046</v>
       </c>
@@ -5429,7 +5428,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>38077</v>
       </c>
@@ -5449,7 +5448,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>38107</v>
       </c>
@@ -5469,7 +5468,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>38138</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>38168</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>38153</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>96</v>
@@ -5543,7 +5542,7 @@
         <v>38161</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>124</v>
@@ -5563,7 +5562,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="50"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>38199</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>126</v>
@@ -5609,7 +5608,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>38230</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>49</v>
@@ -5657,7 +5656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>127</v>
@@ -5677,7 +5676,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>38260</v>
       </c>
@@ -5701,7 +5700,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>38291</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>38287</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>130</v>
@@ -5747,7 +5746,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>38321</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>96</v>
@@ -5795,7 +5794,7 @@
         <v>38301</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>131</v>
@@ -5815,7 +5814,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>38352</v>
       </c>
@@ -5839,7 +5838,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>107</v>
@@ -5859,7 +5858,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>65</v>
       </c>
@@ -5881,7 +5880,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>38383</v>
       </c>
@@ -5901,7 +5900,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>38411</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>38442</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>135</v>
@@ -5969,7 +5968,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>38472</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>109</v>
@@ -6015,7 +6014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>96</v>
@@ -6037,7 +6036,7 @@
         <v>38456</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>96</v>
@@ -6059,7 +6058,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>136</v>
@@ -6079,7 +6078,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>38503</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>137</v>
@@ -6125,7 +6124,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -6147,7 +6146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>38533</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>38511</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>138</v>
@@ -6193,7 +6192,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>38564</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>96</v>
@@ -6241,7 +6240,7 @@
         <v>38554</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>96</v>
@@ -6263,7 +6262,7 @@
         <v>38560</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>96</v>
@@ -6285,7 +6284,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>139</v>
@@ -6305,7 +6304,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>38595</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>140</v>
@@ -6351,7 +6350,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>38625</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>96</v>
@@ -6399,7 +6398,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>145</v>
@@ -6419,7 +6418,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>38656</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>38638</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>96</v>
@@ -6467,7 +6466,7 @@
         <v>38650</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>146</v>
@@ -6487,7 +6486,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>38686</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>96</v>
@@ -6535,7 +6534,7 @@
         <v>38678</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>147</v>
@@ -6555,7 +6554,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>38717</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>49</v>
@@ -6603,7 +6602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>148</v>
@@ -6623,7 +6622,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="48" t="s">
         <v>66</v>
       </c>
@@ -6645,7 +6644,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>38748</v>
       </c>
@@ -6669,7 +6668,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>38776</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>38770</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>109</v>
@@ -6715,7 +6714,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>150</v>
@@ -6735,7 +6734,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>38807</v>
       </c>
@@ -6759,7 +6758,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>38837</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>152</v>
@@ -6803,7 +6802,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>38868</v>
       </c>
@@ -6827,7 +6826,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>109</v>
@@ -6847,7 +6846,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>38898</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>157</v>
@@ -6893,7 +6892,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>38929</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>38912</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>96</v>
@@ -6941,7 +6940,7 @@
         <v>38918</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>158</v>
@@ -6961,7 +6960,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>38960</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>96</v>
@@ -7009,7 +7008,7 @@
         <v>38916</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
@@ -7031,7 +7030,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>159</v>
@@ -7051,7 +7050,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>38990</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>38975</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>96</v>
@@ -7099,7 +7098,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>160</v>
@@ -7119,7 +7118,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>39021</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>39001</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>96</v>
@@ -7167,7 +7166,7 @@
         <v>39006</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>96</v>
@@ -7189,7 +7188,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>161</v>
@@ -7209,7 +7208,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>39051</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>96</v>
@@ -7257,7 +7256,7 @@
         <v>39044</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>162</v>
@@ -7277,7 +7276,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>39082</v>
       </c>
@@ -7301,7 +7300,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>166</v>
@@ -7321,7 +7320,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
         <v>67</v>
       </c>
@@ -7343,7 +7342,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>39113</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>39112</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>167</v>
@@ -7389,7 +7388,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>39141</v>
       </c>
@@ -7413,7 +7412,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>39172</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>39147</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>96</v>
@@ -7461,7 +7460,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>109</v>
@@ -7481,7 +7480,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>169</v>
@@ -7501,7 +7500,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>39202</v>
       </c>
@@ -7525,7 +7524,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>39233</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>109</v>
@@ -7571,7 +7570,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>171</v>
@@ -7591,7 +7590,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>39263</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>172</v>
@@ -7637,7 +7636,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>39294</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>173</v>
@@ -7683,7 +7682,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>39325</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>174</v>
@@ -7729,7 +7728,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>39355</v>
       </c>
@@ -7753,7 +7752,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>39386</v>
       </c>
@@ -7777,7 +7776,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>39416</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>39447</v>
       </c>
@@ -7823,7 +7822,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>68</v>
       </c>
@@ -7845,7 +7844,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>39478</v>
       </c>
@@ -7865,7 +7864,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>39507</v>
       </c>
@@ -7885,7 +7884,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>39538</v>
       </c>
@@ -7905,7 +7904,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>39568</v>
       </c>
@@ -7925,7 +7924,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>39599</v>
       </c>
@@ -7945,7 +7944,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>39629</v>
       </c>
@@ -7965,7 +7964,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>39660</v>
       </c>
@@ -7985,7 +7984,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>39691</v>
       </c>
@@ -8005,7 +8004,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>39721</v>
       </c>
@@ -8025,7 +8024,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>39752</v>
       </c>
@@ -8045,7 +8044,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>39782</v>
       </c>
@@ -8065,7 +8064,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>39813</v>
       </c>
@@ -8089,7 +8088,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="48" t="s">
         <v>69</v>
       </c>
@@ -8111,7 +8110,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>39844</v>
       </c>
@@ -8131,7 +8130,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>39872</v>
       </c>
@@ -8155,7 +8154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>39903</v>
       </c>
@@ -8175,7 +8174,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>39933</v>
       </c>
@@ -8195,7 +8194,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>39964</v>
       </c>
@@ -8215,7 +8214,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>39994</v>
       </c>
@@ -8235,7 +8234,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>40025</v>
       </c>
@@ -8255,7 +8254,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>40056</v>
       </c>
@@ -8275,7 +8274,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>40086</v>
       </c>
@@ -8295,7 +8294,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>40117</v>
       </c>
@@ -8315,7 +8314,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>40147</v>
       </c>
@@ -8335,7 +8334,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>40178</v>
       </c>
@@ -8359,7 +8358,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>182</v>
@@ -8379,7 +8378,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="48" t="s">
         <v>70</v>
       </c>
@@ -8401,7 +8400,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>40209</v>
       </c>
@@ -8421,7 +8420,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>40237</v>
       </c>
@@ -8441,7 +8440,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>40268</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>40298</v>
       </c>
@@ -8485,7 +8484,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>40329</v>
       </c>
@@ -8509,7 +8508,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>40359</v>
       </c>
@@ -8533,7 +8532,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>40390</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>186</v>
@@ -8579,7 +8578,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>40421</v>
       </c>
@@ -8603,7 +8602,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>40451</v>
       </c>
@@ -8627,7 +8626,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>40482</v>
       </c>
@@ -8651,7 +8650,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>40512</v>
       </c>
@@ -8671,7 +8670,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>40543</v>
       </c>
@@ -8695,7 +8694,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>45</v>
@@ -8715,7 +8714,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="48" t="s">
         <v>71</v>
       </c>
@@ -8737,7 +8736,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>40574</v>
       </c>
@@ -8761,7 +8760,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>40602</v>
       </c>
@@ -8785,7 +8784,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>40633</v>
       </c>
@@ -8809,7 +8808,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>40663</v>
       </c>
@@ -8833,7 +8832,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>40694</v>
       </c>
@@ -8857,7 +8856,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>40724</v>
       </c>
@@ -8881,7 +8880,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>40755</v>
       </c>
@@ -8905,7 +8904,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>40786</v>
       </c>
@@ -8929,7 +8928,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>40816</v>
       </c>
@@ -8953,7 +8952,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>40847</v>
       </c>
@@ -8977,7 +8976,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>40877</v>
       </c>
@@ -9001,7 +9000,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>40908</v>
       </c>
@@ -9025,7 +9024,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>72</v>
       </c>
@@ -9047,7 +9046,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>40939</v>
       </c>
@@ -9067,7 +9066,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>40968</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40999</v>
       </c>
@@ -9111,7 +9110,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>41029</v>
       </c>
@@ -9131,7 +9130,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>41060</v>
       </c>
@@ -9151,7 +9150,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>41090</v>
       </c>
@@ -9171,7 +9170,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>41121</v>
       </c>
@@ -9191,7 +9190,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>41152</v>
       </c>
@@ -9211,7 +9210,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>41182</v>
       </c>
@@ -9231,7 +9230,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>41213</v>
       </c>
@@ -9251,7 +9250,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>41243</v>
       </c>
@@ -9271,7 +9270,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>41274</v>
       </c>
@@ -9295,7 +9294,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="48" t="s">
         <v>73</v>
       </c>
@@ -9317,7 +9316,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>41305</v>
       </c>
@@ -9337,7 +9336,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>41333</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>41364</v>
       </c>
@@ -9383,7 +9382,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>41394</v>
       </c>
@@ -9403,7 +9402,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>41425</v>
       </c>
@@ -9423,7 +9422,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>41455</v>
       </c>
@@ -9443,7 +9442,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>41486</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>41517</v>
       </c>
@@ -9489,7 +9488,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>41547</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>41578</v>
       </c>
@@ -9535,7 +9534,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>41608</v>
       </c>
@@ -9555,7 +9554,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>41639</v>
       </c>
@@ -9575,7 +9574,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
         <v>74</v>
       </c>
@@ -9597,7 +9596,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>41670</v>
       </c>
@@ -9617,7 +9616,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>41698</v>
       </c>
@@ -9637,7 +9636,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>41729</v>
       </c>
@@ -9657,7 +9656,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>41759</v>
       </c>
@@ -9677,7 +9676,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>41790</v>
       </c>
@@ -9697,7 +9696,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>41820</v>
       </c>
@@ -9717,7 +9716,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>41851</v>
       </c>
@@ -9737,7 +9736,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>41882</v>
       </c>
@@ -9757,7 +9756,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>41912</v>
       </c>
@@ -9777,7 +9776,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>41943</v>
       </c>
@@ -9797,7 +9796,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>41973</v>
       </c>
@@ -9817,7 +9816,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>42004</v>
       </c>
@@ -9841,7 +9840,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>75</v>
       </c>
@@ -9863,7 +9862,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>42035</v>
       </c>
@@ -9883,7 +9882,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>42063</v>
       </c>
@@ -9903,7 +9902,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>42094</v>
       </c>
@@ -9923,7 +9922,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>42124</v>
       </c>
@@ -9943,7 +9942,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>42155</v>
       </c>
@@ -9963,7 +9962,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>42185</v>
       </c>
@@ -9983,7 +9982,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>42216</v>
       </c>
@@ -10003,7 +10002,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>42247</v>
       </c>
@@ -10023,7 +10022,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>42277</v>
       </c>
@@ -10043,7 +10042,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>42308</v>
       </c>
@@ -10063,7 +10062,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>42338</v>
       </c>
@@ -10083,7 +10082,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>42369</v>
       </c>
@@ -10107,7 +10106,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>76</v>
       </c>
@@ -10129,7 +10128,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>42400</v>
       </c>
@@ -10149,7 +10148,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>42429</v>
       </c>
@@ -10169,7 +10168,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>42460</v>
       </c>
@@ -10189,7 +10188,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>42490</v>
       </c>
@@ -10209,7 +10208,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>42521</v>
       </c>
@@ -10229,7 +10228,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>42551</v>
       </c>
@@ -10249,7 +10248,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>42582</v>
       </c>
@@ -10269,7 +10268,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>42613</v>
       </c>
@@ -10289,7 +10288,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>42643</v>
       </c>
@@ -10309,7 +10308,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>42674</v>
       </c>
@@ -10329,7 +10328,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>42704</v>
       </c>
@@ -10349,7 +10348,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>42735</v>
       </c>
@@ -10373,7 +10372,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>77</v>
       </c>
@@ -10395,7 +10394,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>42766</v>
       </c>
@@ -10415,7 +10414,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>42794</v>
       </c>
@@ -10435,7 +10434,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>42825</v>
       </c>
@@ -10455,7 +10454,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>42855</v>
       </c>
@@ -10475,7 +10474,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>42886</v>
       </c>
@@ -10495,7 +10494,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>42916</v>
       </c>
@@ -10515,7 +10514,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>42947</v>
       </c>
@@ -10535,7 +10534,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>42978</v>
       </c>
@@ -10555,7 +10554,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>43008</v>
       </c>
@@ -10575,7 +10574,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>43039</v>
       </c>
@@ -10595,7 +10594,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>43069</v>
       </c>
@@ -10615,7 +10614,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>43100</v>
       </c>
@@ -10639,7 +10638,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="48" t="s">
         <v>44</v>
       </c>
@@ -10661,7 +10660,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43131</v>
       </c>
@@ -10681,7 +10680,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EOMONTH(A416,1)</f>
         <v>43159</v>
@@ -10702,7 +10701,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" ref="A418:A482" si="0">EOMONTH(A417,1)</f>
         <v>43190</v>
@@ -10723,7 +10722,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="0"/>
         <v>43220</v>
@@ -10744,7 +10743,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="0"/>
         <v>43251</v>
@@ -10765,7 +10764,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="0"/>
         <v>43281</v>
@@ -10786,7 +10785,7 @@
       <c r="J421" s="12"/>
       <c r="K421" s="15"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="0"/>
         <v>43312</v>
@@ -10807,7 +10806,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="0"/>
         <v>43343</v>
@@ -10828,7 +10827,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f t="shared" si="0"/>
         <v>43373</v>
@@ -10849,7 +10848,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="0"/>
         <v>43404</v>
@@ -10870,7 +10869,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="0"/>
         <v>43434</v>
@@ -10891,7 +10890,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="0"/>
         <v>43465</v>
@@ -10916,7 +10915,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="48" t="s">
         <v>46</v>
       </c>
@@ -10938,7 +10937,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EOMONTH(A427,1)</f>
         <v>43496</v>
@@ -10957,7 +10956,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="0"/>
         <v>43524</v>
@@ -10978,7 +10977,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="0"/>
         <v>43555</v>
@@ -10999,7 +10998,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="0"/>
         <v>43585</v>
@@ -11020,7 +11019,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="0"/>
         <v>43616</v>
@@ -11041,7 +11040,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="0"/>
         <v>43646</v>
@@ -11062,7 +11061,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="0"/>
         <v>43677</v>
@@ -11083,7 +11082,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="0"/>
         <v>43708</v>
@@ -11104,7 +11103,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="0"/>
         <v>43738</v>
@@ -11125,7 +11124,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="0"/>
         <v>43769</v>
@@ -11146,7 +11145,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" si="0"/>
         <v>43799</v>
@@ -11167,7 +11166,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f t="shared" si="0"/>
         <v>43830</v>
@@ -11188,7 +11187,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="48" t="s">
         <v>47</v>
       </c>
@@ -11210,7 +11209,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EOMONTH(A440,1)</f>
         <v>43861</v>
@@ -11235,7 +11234,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="0"/>
         <v>43890</v>
@@ -11254,7 +11253,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -11275,7 +11274,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="0"/>
         <v>43951</v>
@@ -11296,7 +11295,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="0"/>
         <v>43982</v>
@@ -11317,7 +11316,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="0"/>
         <v>44012</v>
@@ -11338,7 +11337,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="0"/>
         <v>44043</v>
@@ -11359,7 +11358,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="0"/>
         <v>44074</v>
@@ -11380,7 +11379,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="0"/>
         <v>44104</v>
@@ -11401,7 +11400,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="0"/>
         <v>44135</v>
@@ -11422,7 +11421,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="0"/>
         <v>44165</v>
@@ -11443,7 +11442,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="0"/>
         <v>44196</v>
@@ -11464,7 +11463,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
         <v>48</v>
       </c>
@@ -11486,7 +11485,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f>EOMONTH(A453,1)</f>
         <v>44227</v>
@@ -11507,7 +11506,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="0"/>
         <v>44255</v>
@@ -11532,7 +11531,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="0"/>
         <v>44286</v>
@@ -11551,7 +11550,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="0"/>
         <v>44316</v>
@@ -11572,7 +11571,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="0"/>
         <v>44347</v>
@@ -11593,7 +11592,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="0"/>
         <v>44377</v>
@@ -11614,7 +11613,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f t="shared" si="0"/>
         <v>44408</v>
@@ -11635,7 +11634,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" si="0"/>
         <v>44439</v>
@@ -11656,7 +11655,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="0"/>
         <v>44469</v>
@@ -11677,7 +11676,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="0"/>
         <v>44500</v>
@@ -11704,7 +11703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="0"/>
         <v>44530</v>
@@ -11725,7 +11724,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" si="0"/>
         <v>44561</v>
@@ -11746,7 +11745,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
         <v>51</v>
       </c>
@@ -11768,7 +11767,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EOMONTH(A466,1)</f>
         <v>44592</v>
@@ -11789,7 +11788,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="0"/>
         <v>44620</v>
@@ -11810,7 +11809,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="0"/>
         <v>44651</v>
@@ -11831,7 +11830,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="0"/>
         <v>44681</v>
@@ -11852,7 +11851,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="0"/>
         <v>44712</v>
@@ -11873,7 +11872,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="0"/>
         <v>44742</v>
@@ -11894,7 +11893,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="0"/>
         <v>44773</v>
@@ -11915,7 +11914,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="0"/>
         <v>44804</v>
@@ -11936,7 +11935,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f t="shared" si="0"/>
         <v>44834</v>
@@ -11957,7 +11956,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" si="0"/>
         <v>44865</v>
@@ -11978,7 +11977,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f t="shared" si="0"/>
         <v>44895</v>
@@ -11999,7 +11998,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f t="shared" si="0"/>
         <v>44926</v>
@@ -12024,7 +12023,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>97</v>
       </c>
@@ -12046,7 +12045,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EOMONTH(A479,1)</f>
         <v>44957</v>
@@ -12067,7 +12066,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="0"/>
         <v>44985</v>
@@ -12088,7 +12087,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>45016</v>
       </c>
@@ -12108,7 +12107,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>45046</v>
       </c>
@@ -12128,7 +12127,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>45077</v>
       </c>
@@ -12148,25 +12147,27 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>45107</v>
       </c>
       <c r="B486" s="20"/>
-      <c r="C486" s="13"/>
+      <c r="C486" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D486" s="39"/>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G486" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>45138</v>
       </c>
@@ -12184,7 +12185,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>45169</v>
       </c>
@@ -12202,7 +12203,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>45199</v>
       </c>
@@ -12220,7 +12221,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>45230</v>
       </c>
@@ -12238,7 +12239,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>45260</v>
       </c>
@@ -12256,7 +12257,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>45291</v>
       </c>
@@ -12274,7 +12275,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>45322</v>
       </c>
@@ -12292,7 +12293,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12308,7 +12309,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12324,7 +12325,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12340,7 +12341,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12356,7 +12357,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12372,7 +12373,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12388,7 +12389,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12404,7 +12405,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12420,7 +12421,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12436,7 +12437,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12452,7 +12453,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -12468,7 +12469,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -12484,7 +12485,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -12500,7 +12501,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -12516,7 +12517,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -12532,7 +12533,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -12548,7 +12549,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -12564,7 +12565,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -12580,7 +12581,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -12596,7 +12597,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -12612,7 +12613,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12628,7 +12629,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12644,7 +12645,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12660,7 +12661,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -12676,7 +12677,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -12692,7 +12693,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -12708,7 +12709,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -12724,7 +12725,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -12740,7 +12741,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -12756,7 +12757,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -12772,7 +12773,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -12788,7 +12789,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -12804,7 +12805,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -12820,7 +12821,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -12836,7 +12837,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -12852,7 +12853,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -12868,7 +12869,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -12884,7 +12885,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -12900,7 +12901,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -12916,7 +12917,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -12932,7 +12933,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -12948,7 +12949,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -12964,7 +12965,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -12980,7 +12981,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -12996,7 +12997,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13012,7 +13013,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13028,7 +13029,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="41"/>
       <c r="B540" s="15"/>
       <c r="C540" s="42"/>
@@ -13059,10 +13060,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13085,28 +13086,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -13119,7 +13120,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13148,7 +13149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -13172,17 +13173,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13203,7 +13204,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13230,7 +13231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13256,7 +13257,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13282,7 +13283,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13432,7 +13433,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13472,7 +13473,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13514,7 +13515,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13577,7 +13578,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13640,7 +13641,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13682,7 +13683,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13703,7 +13704,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13724,7 +13725,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13766,7 +13767,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13829,7 +13830,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13850,7 +13851,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13892,7 +13893,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13901,7 +13902,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13910,7 +13911,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13919,7 +13920,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13928,7 +13929,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13937,7 +13938,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13946,7 +13947,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13955,7 +13956,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13964,7 +13965,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13973,7 +13974,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13982,7 +13983,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13991,7 +13992,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14000,7 +14001,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14009,7 +14010,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14018,7 +14019,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14027,7 +14028,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14036,7 +14037,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14045,7 +14046,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14054,7 +14055,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14063,7 +14064,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14072,7 +14073,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14081,7 +14082,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14090,7 +14091,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14099,7 +14100,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14108,7 +14109,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14117,7 +14118,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14126,7 +14127,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14135,7 +14136,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14144,7 +14145,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14153,7 +14154,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
